--- a/temp_doc/DATA KELAS FIX copy.xlsx
+++ b/temp_doc/DATA KELAS FIX copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F6F5A-602F-CB46-901A-F340920807DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C52D0C-6AB8-5849-A0E4-D228C6040E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>X DKV</t>
-  </si>
-  <si>
-    <t>XI DKV</t>
   </si>
 </sst>
 </file>
@@ -419,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664577AF-41FC-0C49-BD7B-86162BAED619}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,21 +447,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1044404</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp_doc/DATA KELAS FIX copy.xlsx
+++ b/temp_doc/DATA KELAS FIX copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C52D0C-6AB8-5849-A0E4-D228C6040E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72882ED-6426-F542-87C1-924DE09BF57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/temp_doc/DATA KELAS FIX copy.xlsx
+++ b/temp_doc/DATA KELAS FIX copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt2.0admin\temp_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72882ED-6426-F542-87C1-924DE09BF57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54565585-A57D-411E-9B0D-73F92FCE40FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,12 +419,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1035404</v>
       </c>
@@ -446,10 +446,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
   </sheetData>

--- a/temp_doc/DATA KELAS FIX copy.xlsx
+++ b/temp_doc/DATA KELAS FIX copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt2.0admin\temp_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54565585-A57D-411E-9B0D-73F92FCE40FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B94DA-BC04-374E-B944-ED7A8967C044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>X DKV</t>
+  </si>
+  <si>
+    <t>XI DKV</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,12 +422,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1035404</v>
       </c>
@@ -446,10 +449,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1036404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
